--- a/biology/Botanique/Agamospermie/Agamospermie.xlsx
+++ b/biology/Botanique/Agamospermie/Agamospermie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme Agamospermie désigne la formation de graines sans processus sexuel. Il s'agit par conséquent d'une forme d'apomixie (reproduction asexuée). Lorsqu'une pollinisation est nécessaire comme déclencheur, alors on parle de pseudogamie.
 Les organismes filles qui en résultent sont, de par la fécondation manquante, d'autres individus génétiquement identiques avec la plante mère (clone).
@@ -514,7 +526,9 @@
           <t>Agamospermie sporophytique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agamospermie sporophytique est facultative et peut même se produire parallèlement à la formation de graines par voie sexuelle. Dans le genre Citrus on constate par exemple une polyembryonisation, dans laquelle on peut trouver plusieurs embryons par graine, certains sexuels, d'autres asexuels.
 D'autres exemples seraient par exemple les espèces Opuntia (Cactaceae) et le Nigritella, une Orchidaceae.
@@ -546,13 +560,49 @@
           <t>Agamospermie gamétophytique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'embryon se développe via un gamétophyte (sac embryonnaire). Dans ce cas, le sac embryonnaire est formé par mitose à partir d'une cellule diploïde de l'ovule qui ne subit pas de méiose. On parle ici d'apoméiose (ou améiose)[1]. Dans cette agamospermie, le développement de l'embryon est indépendant de la fécondation, tandis que la formation de l'albumen peut ou pas nécessiter une fécondation.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'embryon se développe via un gamétophyte (sac embryonnaire). Dans ce cas, le sac embryonnaire est formé par mitose à partir d'une cellule diploïde de l'ovule qui ne subit pas de méiose. On parle ici d'apoméiose (ou améiose). Dans cette agamospermie, le développement de l'embryon est indépendant de la fécondation, tandis que la formation de l'albumen peut ou pas nécessiter une fécondation.
 Le développement d'un sac embryonnaire apoméiotique est sous-divisé en 2 types: Aposporie et Diplosporie.
-Aposporie
-Diplosporie
-La diplosporie se retrouve avant tout chez les Asteraceae, comme dans les genres Taraxacum, Antennaria ou Hieracium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agamospermie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agamospermie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Agamospermie gamétophytique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Diplosporie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diplosporie se retrouve avant tout chez les Asteraceae, comme dans les genres Taraxacum, Antennaria ou Hieracium.
 </t>
         </is>
       </c>
